--- a/Data Sync/Oliver Data.xlsx
+++ b/Data Sync/Oliver Data.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://simserv-my.sharepoint.com/personal/justin_simmonds_id_au/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://simserv-my.sharepoint.com/personal/justin_simmonds_id_au/Documents/Documents/Archives/Projects/Programing/User-Management/Data Sync/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D763C4E4-122F-4F94-AAD4-10BAF89BDCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{D763C4E4-122F-4F94-AAD4-10BAF89BDCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{022C5C2E-D566-436D-9B7D-A2FBE6465B9F}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{264F4E85-089F-45C8-A02B-558C09B4B7A1}"/>
+    <workbookView xWindow="-28920" yWindow="-195" windowWidth="29040" windowHeight="15840" xr2:uid="{264F4E85-089F-45C8-A02B-558C09B4B7A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
   <si>
     <t>ADDRESS01</t>
   </si>
@@ -124,9 +125,6 @@
     <t>These need to be filtered and remapped based upon ST.CONTACT_A; Could perhaps use SMS_NOTIFY and EMAIL_NOTIFY to include or exclude these fields</t>
   </si>
   <si>
-    <t>NO EMAILS SPECIFIED ANYWHERE - altEmail from DF only but what about primary for staff,students,family</t>
-  </si>
-  <si>
     <t>ST</t>
   </si>
   <si>
@@ -181,9 +179,6 @@
     <t>USERNAME</t>
   </si>
   <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
     <t>Calculate based on STKEY@DOMAIN or Pull from AD (Guesses that SAM is STKEY)</t>
   </si>
   <si>
@@ -200,13 +195,37 @@
   </si>
   <si>
     <t>Legend</t>
+  </si>
+  <si>
+    <t>Specified in Web Interface but not in Jira Copy from email conversation</t>
+  </si>
+  <si>
+    <t>E_MAIL</t>
+  </si>
+  <si>
+    <t>MAILKEY</t>
+  </si>
+  <si>
+    <t>Need to add to UM Validation</t>
+  </si>
+  <si>
+    <t>PAYROLL_REC_NO</t>
+  </si>
+  <si>
+    <t>SECOND_NAME</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>WORK_PHONE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,8 +270,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,8 +306,13 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -303,15 +335,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -320,17 +379,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="5" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,10 +710,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +746,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -723,7 +785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -731,11 +793,11 @@
         <v>5</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="E6" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -743,8 +805,11 @@
         <v>6</v>
       </c>
       <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -752,9 +817,6 @@
         <v>7</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -764,9 +826,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -775,7 +835,7 @@
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -786,7 +846,7 @@
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -804,7 +864,7 @@
       <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -815,7 +875,7 @@
       <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -824,7 +884,7 @@
       <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -833,7 +893,7 @@
       <c r="B16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -848,221 +908,296 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="8" t="s">
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="8" t="s">
+    <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="7"/>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
+      <c r="C41" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="7"/>
+    </row>
+    <row r="45" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="7"/>
+    </row>
+    <row r="46" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="7"/>
+    </row>
+    <row r="47" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="7"/>
+    </row>
+    <row r="48" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="7"/>
+    </row>
+    <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C10:C11"/>
@@ -1327,16 +1462,16 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45068C7B-EE2D-4D4D-9C8F-C4DD617FB71B}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="99343ff1-50a3-4609-9c3d-16d59b073261"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="c143b92b-9a5c-4760-9e71-c962918674c7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="99343ff1-50a3-4609-9c3d-16d59b073261"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>